--- a/data/pca/factorExposure/factorExposure_2017-06-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0238340518085378</v>
+        <v>0.008865237195218067</v>
       </c>
       <c r="C2">
-        <v>0.003093404006602562</v>
+        <v>0.04388123476776504</v>
       </c>
       <c r="D2">
-        <v>0.03086048174529315</v>
+        <v>-0.03022177543242302</v>
       </c>
       <c r="E2">
-        <v>0.01081061021429523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03335950859322812</v>
+      </c>
+      <c r="F2">
+        <v>-0.01127616307862426</v>
+      </c>
+      <c r="G2">
+        <v>0.08123501882381225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01836623128740132</v>
+        <v>0.04309861866235968</v>
       </c>
       <c r="C3">
-        <v>-0.05131336992399359</v>
+        <v>0.09136821882864311</v>
       </c>
       <c r="D3">
-        <v>0.04816298521515393</v>
+        <v>-0.01787202677331133</v>
       </c>
       <c r="E3">
-        <v>0.01660665699220621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.101896274187271</v>
+      </c>
+      <c r="F3">
+        <v>-0.0131196598394239</v>
+      </c>
+      <c r="G3">
+        <v>0.1688796808609042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02470207421639005</v>
+        <v>0.05533441408662177</v>
       </c>
       <c r="C4">
-        <v>-0.01391214505061008</v>
+        <v>0.06740623143411992</v>
       </c>
       <c r="D4">
-        <v>0.08075157362138478</v>
+        <v>-0.02469594110172666</v>
       </c>
       <c r="E4">
-        <v>-0.01688516121643661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0257408188264315</v>
+      </c>
+      <c r="F4">
+        <v>-0.0133558428936012</v>
+      </c>
+      <c r="G4">
+        <v>0.08877971818452274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01454735018836609</v>
+        <v>0.0370428011632236</v>
       </c>
       <c r="C6">
-        <v>-8.641813372081388e-05</v>
+        <v>0.05425480016764758</v>
       </c>
       <c r="D6">
-        <v>0.0829167021219646</v>
+        <v>-0.01674920083209833</v>
       </c>
       <c r="E6">
-        <v>-0.009144211104654153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02517721972595775</v>
+      </c>
+      <c r="F6">
+        <v>-0.01098546286316505</v>
+      </c>
+      <c r="G6">
+        <v>0.06231610198289336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01127050914859546</v>
+        <v>0.01935305704586984</v>
       </c>
       <c r="C7">
-        <v>-0.006065266013110945</v>
+        <v>0.04108627153576969</v>
       </c>
       <c r="D7">
-        <v>0.04074884769980524</v>
+        <v>-0.01320868032460809</v>
       </c>
       <c r="E7">
-        <v>-0.05837080794630815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.004927527298864441</v>
+      </c>
+      <c r="F7">
+        <v>0.002122785741547016</v>
+      </c>
+      <c r="G7">
+        <v>0.1204531844999716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0004097411466209798</v>
+        <v>0.001882438108718558</v>
       </c>
       <c r="C8">
-        <v>0.001219659797378069</v>
+        <v>0.02378510888816575</v>
       </c>
       <c r="D8">
-        <v>0.004144269034602691</v>
+        <v>-0.004056102501561899</v>
       </c>
       <c r="E8">
-        <v>-0.008322659319433061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02064189278163682</v>
+      </c>
+      <c r="F8">
+        <v>-0.008142707885150969</v>
+      </c>
+      <c r="G8">
+        <v>0.05708211723855565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01687871639099179</v>
+        <v>0.03243978656654223</v>
       </c>
       <c r="C9">
-        <v>-0.01397767927027862</v>
+        <v>0.04894388963172878</v>
       </c>
       <c r="D9">
-        <v>0.06043875209475131</v>
+        <v>-0.01688867325561244</v>
       </c>
       <c r="E9">
-        <v>-0.007391459732146421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01646563004885896</v>
+      </c>
+      <c r="F9">
+        <v>-0.01137468937982911</v>
+      </c>
+      <c r="G9">
+        <v>0.08547648833240033</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02727274504271313</v>
+        <v>0.09951176501303591</v>
       </c>
       <c r="C10">
-        <v>-0.1693098587427458</v>
+        <v>-0.1808590113590593</v>
       </c>
       <c r="D10">
-        <v>-0.09763412235025296</v>
+        <v>0.01469551996478255</v>
       </c>
       <c r="E10">
-        <v>0.01279689212253705</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01897154450981781</v>
+      </c>
+      <c r="F10">
+        <v>0.0204658746734184</v>
+      </c>
+      <c r="G10">
+        <v>0.05621795469834756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0009012705098980497</v>
+        <v>0.03378443169551214</v>
       </c>
       <c r="C11">
-        <v>-0.003574538437911308</v>
+        <v>0.05511308666130424</v>
       </c>
       <c r="D11">
-        <v>0.04612831271699375</v>
+        <v>-0.002502949913094746</v>
       </c>
       <c r="E11">
-        <v>0.002932329429629936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.009010757835363235</v>
+      </c>
+      <c r="F11">
+        <v>-0.02225915435602607</v>
+      </c>
+      <c r="G11">
+        <v>0.06907492290368579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006425102073836907</v>
+        <v>0.03540158681090264</v>
       </c>
       <c r="C12">
-        <v>-0.008670728139714267</v>
+        <v>0.04877901212630269</v>
       </c>
       <c r="D12">
-        <v>0.04704809358918249</v>
+        <v>-0.006126723465956982</v>
       </c>
       <c r="E12">
-        <v>-0.00858194217505474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.0003119539098622188</v>
+      </c>
+      <c r="F12">
+        <v>-0.001391052391432408</v>
+      </c>
+      <c r="G12">
+        <v>0.06500420031510466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0245643152967537</v>
+        <v>0.01455577554930952</v>
       </c>
       <c r="C13">
-        <v>-0.01674745048690874</v>
+        <v>0.03901395973345619</v>
       </c>
       <c r="D13">
-        <v>0.009917517176112185</v>
+        <v>-0.02651626873957924</v>
       </c>
       <c r="E13">
-        <v>0.008261411212161706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02944164307670942</v>
+      </c>
+      <c r="F13">
+        <v>-0.008847862326741418</v>
+      </c>
+      <c r="G13">
+        <v>0.09980279704013532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00907872491415297</v>
+        <v>0.007653732457621097</v>
       </c>
       <c r="C14">
-        <v>-0.01354139251825154</v>
+        <v>0.02720218808683381</v>
       </c>
       <c r="D14">
-        <v>0.01109245965421755</v>
+        <v>-0.009567221591457635</v>
       </c>
       <c r="E14">
-        <v>-0.00775204800497708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-6.095049519034916e-05</v>
+      </c>
+      <c r="F14">
+        <v>0.006217527311951574</v>
+      </c>
+      <c r="G14">
+        <v>0.08604232437717538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001874854243337694</v>
+        <v>0.03270363108174133</v>
       </c>
       <c r="C16">
-        <v>-0.009654788113643469</v>
+        <v>0.04876852628278555</v>
       </c>
       <c r="D16">
-        <v>0.04882717319007942</v>
+        <v>-0.001997533894017569</v>
       </c>
       <c r="E16">
-        <v>-0.007242605227728277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.007919495204453461</v>
+      </c>
+      <c r="F16">
+        <v>-0.003029705773003309</v>
+      </c>
+      <c r="G16">
+        <v>0.07288300452400999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01529331792042313</v>
+        <v>0.01996022392283164</v>
       </c>
       <c r="C19">
-        <v>-0.01727576060966454</v>
+        <v>0.05099052591359134</v>
       </c>
       <c r="D19">
-        <v>0.02314303855140382</v>
+        <v>-0.01926851716982488</v>
       </c>
       <c r="E19">
-        <v>-0.004599965210918321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06586676205351576</v>
+      </c>
+      <c r="F19">
+        <v>-0.0254805723271983</v>
+      </c>
+      <c r="G19">
+        <v>0.1169435342617873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01125938763393233</v>
+        <v>0.01387798045086127</v>
       </c>
       <c r="C20">
-        <v>-0.005370361731530339</v>
+        <v>0.03827801245450097</v>
       </c>
       <c r="D20">
-        <v>0.01728739678888617</v>
+        <v>-0.01432127458833215</v>
       </c>
       <c r="E20">
-        <v>0.01133505385229196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02775589062566351</v>
+      </c>
+      <c r="F20">
+        <v>0.00810075721363227</v>
+      </c>
+      <c r="G20">
+        <v>0.09232222046036433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01523535223516185</v>
+        <v>0.01156815049397976</v>
       </c>
       <c r="C21">
-        <v>-0.01374157642493114</v>
+        <v>0.03986720947071513</v>
       </c>
       <c r="D21">
-        <v>0.02659297365155237</v>
+        <v>-0.01872895369586849</v>
       </c>
       <c r="E21">
-        <v>-0.01257283110111394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.04017113173934444</v>
+      </c>
+      <c r="F21">
+        <v>-0.001852321964804795</v>
+      </c>
+      <c r="G21">
+        <v>0.1193452741841014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0004359514285847608</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002799251298192894</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-0.0002021094708488739</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0007434463964991457</v>
+      </c>
+      <c r="F22">
+        <v>-0.0006455529007428872</v>
+      </c>
+      <c r="G22">
+        <v>0.001840942469221339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.000440280696930957</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002795162706166649</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-0.0002022678861023011</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0007488252883899992</v>
+      </c>
+      <c r="F23">
+        <v>-0.0006438323607631897</v>
+      </c>
+      <c r="G23">
+        <v>0.001849686179571818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004442175600697242</v>
+        <v>0.02719908412501797</v>
       </c>
       <c r="C24">
-        <v>0.002214216229911212</v>
+        <v>0.05152216868289065</v>
       </c>
       <c r="D24">
-        <v>0.045793952911089</v>
+        <v>-0.007271375877838868</v>
       </c>
       <c r="E24">
-        <v>-0.005833269244455449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004696672235891348</v>
+      </c>
+      <c r="F24">
+        <v>-0.01461088543917291</v>
+      </c>
+      <c r="G24">
+        <v>0.07278615848683494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01270742750189129</v>
+        <v>0.04182692369952083</v>
       </c>
       <c r="C25">
-        <v>-0.0137247811442448</v>
+        <v>0.05900424572899776</v>
       </c>
       <c r="D25">
-        <v>0.0493398191486985</v>
+        <v>-0.01125539186154569</v>
       </c>
       <c r="E25">
-        <v>-0.004363937267773441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001690467917445714</v>
+      </c>
+      <c r="F25">
+        <v>-0.009019281730625715</v>
+      </c>
+      <c r="G25">
+        <v>0.07981931871161051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02355667709374214</v>
+        <v>0.01384191333298072</v>
       </c>
       <c r="C26">
-        <v>-0.0079280482929001</v>
+        <v>0.01095125839528064</v>
       </c>
       <c r="D26">
-        <v>-0.003424470550943741</v>
+        <v>-0.02385434361365545</v>
       </c>
       <c r="E26">
-        <v>-0.008046984359499014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005457825937243355</v>
+      </c>
+      <c r="F26">
+        <v>0.007459110286876509</v>
+      </c>
+      <c r="G26">
+        <v>0.06899021023246805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05263103901822692</v>
+        <v>0.1282279674763864</v>
       </c>
       <c r="C28">
-        <v>-0.2404381188368366</v>
+        <v>-0.2348024236801288</v>
       </c>
       <c r="D28">
-        <v>-0.1371483556362708</v>
+        <v>0.005770329123596253</v>
       </c>
       <c r="E28">
-        <v>-0.01098602508893493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.005590398541170228</v>
+      </c>
+      <c r="F28">
+        <v>0.01601746195866858</v>
+      </c>
+      <c r="G28">
+        <v>0.06542895090225075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00946036016276368</v>
+        <v>0.008958156897630281</v>
       </c>
       <c r="C29">
-        <v>-0.01722260504364026</v>
+        <v>0.02140537967011938</v>
       </c>
       <c r="D29">
-        <v>0.008743345646719624</v>
+        <v>-0.008603941982975831</v>
       </c>
       <c r="E29">
-        <v>-0.002584343834148932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0007477276599381029</v>
+      </c>
+      <c r="F29">
+        <v>0.01445930254673925</v>
+      </c>
+      <c r="G29">
+        <v>0.07800591910027241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02413350627047316</v>
+        <v>0.04041409276740098</v>
       </c>
       <c r="C30">
-        <v>0.001336229723506056</v>
+        <v>0.06806646178259855</v>
       </c>
       <c r="D30">
-        <v>0.06489258538397963</v>
+        <v>-0.02937059542023074</v>
       </c>
       <c r="E30">
-        <v>0.04246243060090386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05115810439575534</v>
+      </c>
+      <c r="F30">
+        <v>-0.0515684901953604</v>
+      </c>
+      <c r="G30">
+        <v>0.08714332641408369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01120164055513773</v>
+        <v>0.05227159640110003</v>
       </c>
       <c r="C31">
-        <v>-0.0388051517552619</v>
+        <v>0.03749764352359023</v>
       </c>
       <c r="D31">
-        <v>0.04366774339538668</v>
+        <v>-0.003607381833966634</v>
       </c>
       <c r="E31">
-        <v>-0.00903445463975916</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.003347659268538818</v>
+      </c>
+      <c r="F31">
+        <v>0.03848177819898178</v>
+      </c>
+      <c r="G31">
+        <v>0.0788373647303988</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.004757681720817392</v>
+        <v>0.001123754348096159</v>
       </c>
       <c r="C32">
-        <v>-0.01962719180486432</v>
+        <v>0.02338702679116052</v>
       </c>
       <c r="D32">
-        <v>0.002139104797110283</v>
+        <v>0.003678500342510408</v>
       </c>
       <c r="E32">
-        <v>-0.05302495947775282</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01590935866863849</v>
+      </c>
+      <c r="F32">
+        <v>-0.04131130677884667</v>
+      </c>
+      <c r="G32">
+        <v>0.09218912846114821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01532498487880392</v>
+        <v>0.02680371659145331</v>
       </c>
       <c r="C33">
-        <v>-0.02396129748902572</v>
+        <v>0.04951986828714243</v>
       </c>
       <c r="D33">
-        <v>0.03481945915556491</v>
+        <v>-0.01579282502951231</v>
       </c>
       <c r="E33">
-        <v>0.02711007828881976</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03370695506904113</v>
+      </c>
+      <c r="F33">
+        <v>-0.01950821143479234</v>
+      </c>
+      <c r="G33">
+        <v>0.1156749039188746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003586775618887544</v>
+        <v>0.03961780768817444</v>
       </c>
       <c r="C34">
-        <v>-0.01534740833411166</v>
+        <v>0.06245675356703109</v>
       </c>
       <c r="D34">
-        <v>0.05337406737936245</v>
+        <v>0.004644113920167697</v>
       </c>
       <c r="E34">
-        <v>-0.01240274820067762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.001060478141533741</v>
+      </c>
+      <c r="F34">
+        <v>-0.02084884089902064</v>
+      </c>
+      <c r="G34">
+        <v>0.08124283657641303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01371550709718369</v>
+        <v>0.01542248562790711</v>
       </c>
       <c r="C36">
-        <v>-0.0181732334067688</v>
+        <v>0.00915982683777956</v>
       </c>
       <c r="D36">
-        <v>0.005734120511593234</v>
+        <v>-0.01211144247627908</v>
       </c>
       <c r="E36">
-        <v>-0.004209660207526268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002580831387427019</v>
+      </c>
+      <c r="F36">
+        <v>0.005529409144908901</v>
+      </c>
+      <c r="G36">
+        <v>0.07005649592771747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001901852808199727</v>
+        <v>0.0324349899002252</v>
       </c>
       <c r="C38">
-        <v>-0.03281383132521624</v>
+        <v>0.03157193882180007</v>
       </c>
       <c r="D38">
-        <v>0.04236412344210683</v>
+        <v>0.007556745538426684</v>
       </c>
       <c r="E38">
-        <v>-0.006175322011826287</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002984187229566985</v>
+      </c>
+      <c r="F38">
+        <v>0.01608966740538607</v>
+      </c>
+      <c r="G38">
+        <v>0.07262978083213151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003285243561738115</v>
+        <v>0.03419044260531722</v>
       </c>
       <c r="C39">
-        <v>0.02535732761227039</v>
+        <v>0.08118722302476292</v>
       </c>
       <c r="D39">
-        <v>0.08860384003674399</v>
+        <v>-0.01179631582456233</v>
       </c>
       <c r="E39">
-        <v>0.005833288444955329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01904403184240246</v>
+      </c>
+      <c r="F39">
+        <v>-0.02704510232967063</v>
+      </c>
+      <c r="G39">
+        <v>0.07021551733092314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01283261484483294</v>
+        <v>0.0149635525049849</v>
       </c>
       <c r="C40">
-        <v>-0.0148941118869343</v>
+        <v>0.04220175174432194</v>
       </c>
       <c r="D40">
-        <v>0.03159273922299292</v>
+        <v>-0.01504865620282168</v>
       </c>
       <c r="E40">
-        <v>-0.004117136730750029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0208160296449081</v>
+      </c>
+      <c r="F40">
+        <v>0.01204111028376353</v>
+      </c>
+      <c r="G40">
+        <v>0.1060382761539739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006964105394867508</v>
+        <v>0.01920335710159989</v>
       </c>
       <c r="C41">
-        <v>-0.02010633020777464</v>
+        <v>4.411578541420388e-05</v>
       </c>
       <c r="D41">
-        <v>-0.009787467985064011</v>
+        <v>-0.004132201525283387</v>
       </c>
       <c r="E41">
-        <v>-0.002573224132041345</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0009760930902222866</v>
+      </c>
+      <c r="F41">
+        <v>0.01073641812158445</v>
+      </c>
+      <c r="G41">
+        <v>0.05777105980519116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0913150286955413</v>
+        <v>0.009168897570187431</v>
       </c>
       <c r="C42">
-        <v>0.03317272036567088</v>
+        <v>0.0367009279271979</v>
       </c>
       <c r="D42">
-        <v>0.2376174158936994</v>
+        <v>-0.09293334246501837</v>
       </c>
       <c r="E42">
-        <v>0.3991243827893673</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02486396061800952</v>
+      </c>
+      <c r="F42">
+        <v>0.03800809192222915</v>
+      </c>
+      <c r="G42">
+        <v>-0.1472538402150367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008720332992118385</v>
+        <v>0.03268521390087387</v>
       </c>
       <c r="C43">
-        <v>-0.02597641434900969</v>
+        <v>0.01476271419334825</v>
       </c>
       <c r="D43">
-        <v>-0.006045083932810104</v>
+        <v>-0.006032969750404154</v>
       </c>
       <c r="E43">
-        <v>0.0007774799880107149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01561748599707049</v>
+      </c>
+      <c r="F43">
+        <v>0.001111340822961421</v>
+      </c>
+      <c r="G43">
+        <v>0.08465985686578895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003476364864129974</v>
+        <v>0.0115666877008536</v>
       </c>
       <c r="C44">
-        <v>-0.00346545373563729</v>
+        <v>0.05765226231736981</v>
       </c>
       <c r="D44">
-        <v>0.0412080142031326</v>
+        <v>-0.006941029464474295</v>
       </c>
       <c r="E44">
-        <v>-0.006264235848608876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01826629909328619</v>
+      </c>
+      <c r="F44">
+        <v>0.005928381384785876</v>
+      </c>
+      <c r="G44">
+        <v>0.08783843611670734</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01185712128124039</v>
+        <v>0.00743237363912138</v>
       </c>
       <c r="C46">
-        <v>-0.01340684533885693</v>
+        <v>0.01629464536285355</v>
       </c>
       <c r="D46">
-        <v>0.007562118738289656</v>
+        <v>-0.01228821250093172</v>
       </c>
       <c r="E46">
-        <v>0.00274977615192418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0004732017706302148</v>
+      </c>
+      <c r="F46">
+        <v>0.01394757643375007</v>
+      </c>
+      <c r="G46">
+        <v>0.07879857229493137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005825591468791758</v>
+        <v>0.07697454011194979</v>
       </c>
       <c r="C47">
-        <v>-0.04798560872987252</v>
+        <v>0.06711917910386966</v>
       </c>
       <c r="D47">
-        <v>0.0709029947572781</v>
+        <v>0.005396400174684342</v>
       </c>
       <c r="E47">
-        <v>-0.007714043509580374</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.008777097933260876</v>
+      </c>
+      <c r="F47">
+        <v>0.05391178234927601</v>
+      </c>
+      <c r="G47">
+        <v>0.0724274050132083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004972233572433946</v>
+        <v>0.02000413049570901</v>
       </c>
       <c r="C48">
-        <v>-0.02387315306181332</v>
+        <v>0.01243624706046982</v>
       </c>
       <c r="D48">
-        <v>0.01637849679807412</v>
+        <v>-0.001417802512087353</v>
       </c>
       <c r="E48">
-        <v>-0.002781016747662772</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0004290874157761117</v>
+      </c>
+      <c r="F48">
+        <v>0.01930048620509662</v>
+      </c>
+      <c r="G48">
+        <v>0.07436044590179132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.008393870234660622</v>
+        <v>0.07526129201860293</v>
       </c>
       <c r="C50">
-        <v>-0.05218599069833516</v>
+        <v>0.06982901143639109</v>
       </c>
       <c r="D50">
-        <v>0.0725467879664321</v>
+        <v>0.00285304626644938</v>
       </c>
       <c r="E50">
-        <v>-0.03223489691718959</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.008121778075502213</v>
+      </c>
+      <c r="F50">
+        <v>0.05579546487679673</v>
+      </c>
+      <c r="G50">
+        <v>0.08962670300295125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007960055728388244</v>
+        <v>0.01341032054611214</v>
       </c>
       <c r="C51">
-        <v>-0.01323913616944104</v>
+        <v>0.03559295481855492</v>
       </c>
       <c r="D51">
-        <v>0.001639472230134056</v>
+        <v>-0.01048998155951187</v>
       </c>
       <c r="E51">
-        <v>-0.005752218395997327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01787381572542693</v>
+      </c>
+      <c r="F51">
+        <v>-0.02627348512232903</v>
+      </c>
+      <c r="G51">
+        <v>0.107850307181246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.009437201984102458</v>
+        <v>0.081293591472512</v>
       </c>
       <c r="C53">
-        <v>-0.05878866095412905</v>
+        <v>0.08458466675744028</v>
       </c>
       <c r="D53">
-        <v>0.1286896345286931</v>
+        <v>0.004412924415895037</v>
       </c>
       <c r="E53">
-        <v>-0.01625705673782091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02859412372990343</v>
+      </c>
+      <c r="F53">
+        <v>0.06517761605317007</v>
+      </c>
+      <c r="G53">
+        <v>0.07030591148096735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002757792339823793</v>
+        <v>0.02885846368117109</v>
       </c>
       <c r="C54">
-        <v>-0.03312808617991701</v>
+        <v>0.01589729755717588</v>
       </c>
       <c r="D54">
-        <v>-0.007984582931769069</v>
+        <v>0.00123784173791506</v>
       </c>
       <c r="E54">
-        <v>0.001602012579224872</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01104442789388602</v>
+      </c>
+      <c r="F54">
+        <v>-0.002451989177384357</v>
+      </c>
+      <c r="G54">
+        <v>0.08196108802581908</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004773256306089988</v>
+        <v>0.07090087400174863</v>
       </c>
       <c r="C55">
-        <v>-0.03677710087715232</v>
+        <v>0.06907812896849203</v>
       </c>
       <c r="D55">
-        <v>0.1028197930542118</v>
+        <v>0.005585809221246333</v>
       </c>
       <c r="E55">
-        <v>-0.000277949058602828</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02457946560008556</v>
+      </c>
+      <c r="F55">
+        <v>0.06162931405860953</v>
+      </c>
+      <c r="G55">
+        <v>0.04509759051470513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008968690784228425</v>
+        <v>0.137119276454642</v>
       </c>
       <c r="C56">
-        <v>-0.08085619852961934</v>
+        <v>0.1094150902173976</v>
       </c>
       <c r="D56">
-        <v>0.1630126390168692</v>
+        <v>0.01304024022384118</v>
       </c>
       <c r="E56">
-        <v>-0.005993116741623348</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03276579207666562</v>
+      </c>
+      <c r="F56">
+        <v>0.0801312219735005</v>
+      </c>
+      <c r="G56">
+        <v>0.02212740264991365</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02412410499822835</v>
+        <v>0.006776917407817882</v>
       </c>
       <c r="C57">
-        <v>-0.007281164889995119</v>
+        <v>0.009412471556218395</v>
       </c>
       <c r="D57">
-        <v>0.04780284786006244</v>
+        <v>-0.02366532256751755</v>
       </c>
       <c r="E57">
-        <v>0.005436925314909671</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02386769055130308</v>
+      </c>
+      <c r="F57">
+        <v>-0.008899469367168743</v>
+      </c>
+      <c r="G57">
+        <v>0.02763961583483907</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01852932119359822</v>
+        <v>0.05734538565276872</v>
       </c>
       <c r="C58">
-        <v>-0.07211063346703253</v>
+        <v>0.05453292826528169</v>
       </c>
       <c r="D58">
-        <v>0.1477317645732611</v>
+        <v>-0.0330078390471246</v>
       </c>
       <c r="E58">
-        <v>0.4968101497682195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9348486858265725</v>
+      </c>
+      <c r="F58">
+        <v>0.2395544682349693</v>
+      </c>
+      <c r="G58">
+        <v>-0.1219899151839986</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05230849848283149</v>
+        <v>0.1610090474708027</v>
       </c>
       <c r="C59">
-        <v>-0.2633653463698419</v>
+        <v>-0.1994004224144042</v>
       </c>
       <c r="D59">
-        <v>-0.1328779418824063</v>
+        <v>0.01064694781567288</v>
       </c>
       <c r="E59">
-        <v>-0.004880052031768819</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01841017872011072</v>
+      </c>
+      <c r="F59">
+        <v>-0.002950301688179696</v>
+      </c>
+      <c r="G59">
+        <v>0.04274001234584888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04810964070119424</v>
+        <v>0.2856883851778645</v>
       </c>
       <c r="C60">
-        <v>-0.1610909639257337</v>
+        <v>0.1074686100013224</v>
       </c>
       <c r="D60">
-        <v>0.09561280685458326</v>
+        <v>-0.01338959535627087</v>
       </c>
       <c r="E60">
-        <v>-0.0154422222622158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002569468628513606</v>
+      </c>
+      <c r="F60">
+        <v>-0.3504560417210981</v>
+      </c>
+      <c r="G60">
+        <v>-0.1302965094651956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003484899662995723</v>
+        <v>0.03659457334998874</v>
       </c>
       <c r="C61">
-        <v>-0.005030779047296634</v>
+        <v>0.0677445345821672</v>
       </c>
       <c r="D61">
-        <v>0.06648437469076482</v>
+        <v>-0.005285803332834844</v>
       </c>
       <c r="E61">
-        <v>-0.006410817090769065</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01236420188144553</v>
+      </c>
+      <c r="F61">
+        <v>-0.01508858873800549</v>
+      </c>
+      <c r="G61">
+        <v>0.07229209240724314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008302959662055402</v>
+        <v>0.01363286586692349</v>
       </c>
       <c r="C63">
-        <v>-0.005817856741150046</v>
+        <v>0.02953123750187378</v>
       </c>
       <c r="D63">
-        <v>0.01987985833784282</v>
+        <v>-0.008321792764264221</v>
       </c>
       <c r="E63">
-        <v>-0.01128487363007889</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0004681935784955654</v>
+      </c>
+      <c r="F63">
+        <v>0.01550306426425354</v>
+      </c>
+      <c r="G63">
+        <v>0.07461499522638186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009880232539474567</v>
+        <v>0.04702452558057582</v>
       </c>
       <c r="C64">
-        <v>-0.02640122254461628</v>
+        <v>0.04631445202492362</v>
       </c>
       <c r="D64">
-        <v>0.05768034886973551</v>
+        <v>-0.006436386076836057</v>
       </c>
       <c r="E64">
-        <v>0.007033573490801766</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001851314051057822</v>
+      </c>
+      <c r="F64">
+        <v>-0.006254202919919704</v>
+      </c>
+      <c r="G64">
+        <v>0.0726387476576008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01731761513868369</v>
+        <v>0.07520977001609695</v>
       </c>
       <c r="C65">
-        <v>-0.002889256545184284</v>
+        <v>0.06136272881398942</v>
       </c>
       <c r="D65">
-        <v>0.0972886399477129</v>
+        <v>-0.0165710182136086</v>
       </c>
       <c r="E65">
-        <v>-0.01619738282482208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02755688602471824</v>
+      </c>
+      <c r="F65">
+        <v>-0.02950819504402473</v>
+      </c>
+      <c r="G65">
+        <v>0.0273275548434775</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003592801992821781</v>
+        <v>0.04988652011655109</v>
       </c>
       <c r="C66">
-        <v>0.0194637043796079</v>
+        <v>0.1112663626262369</v>
       </c>
       <c r="D66">
-        <v>0.1183211474497412</v>
+        <v>-0.01183792957262995</v>
       </c>
       <c r="E66">
-        <v>0.00195740980176983</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02738731222167898</v>
+      </c>
+      <c r="F66">
+        <v>-0.03669880231778763</v>
+      </c>
+      <c r="G66">
+        <v>0.0840251160308733</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.00504285382290658</v>
+        <v>0.05508360034038209</v>
       </c>
       <c r="C67">
-        <v>-0.05235347591611044</v>
+        <v>0.03547197505241663</v>
       </c>
       <c r="D67">
-        <v>0.05297778571947752</v>
+        <v>0.005977906298997263</v>
       </c>
       <c r="E67">
-        <v>-0.007922009761308529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003892921680340833</v>
+      </c>
+      <c r="F67">
+        <v>0.01685906895200772</v>
+      </c>
+      <c r="G67">
+        <v>0.0650973894945157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06675660969484497</v>
+        <v>0.1552793151052601</v>
       </c>
       <c r="C68">
-        <v>-0.2362598294515027</v>
+        <v>-0.2674591574128048</v>
       </c>
       <c r="D68">
-        <v>-0.1545313037232475</v>
+        <v>-0.006454326061080619</v>
       </c>
       <c r="E68">
-        <v>0.02106703618592223</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01219127164982836</v>
+      </c>
+      <c r="F68">
+        <v>0.03167678018487106</v>
+      </c>
+      <c r="G68">
+        <v>0.02935263353944291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0005769427010255352</v>
+        <v>0.08047010102057298</v>
       </c>
       <c r="C69">
-        <v>-0.03891544851482408</v>
+        <v>0.07027609171128398</v>
       </c>
       <c r="D69">
-        <v>0.07325332703551535</v>
+        <v>0.009516453304703512</v>
       </c>
       <c r="E69">
-        <v>-0.01538442211522651</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02538891199392068</v>
+      </c>
+      <c r="F69">
+        <v>0.03697306860982763</v>
+      </c>
+      <c r="G69">
+        <v>0.07645663392777356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05057958122598241</v>
+        <v>0.1417288617031945</v>
       </c>
       <c r="C71">
-        <v>-0.2069852899182585</v>
+        <v>-0.2279354174535148</v>
       </c>
       <c r="D71">
-        <v>-0.1155997163414394</v>
+        <v>0.002132510554996042</v>
       </c>
       <c r="E71">
-        <v>0.01178750665455312</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03220726939951331</v>
+      </c>
+      <c r="F71">
+        <v>0.01652995875023189</v>
+      </c>
+      <c r="G71">
+        <v>0.06081688202902632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0001638649815020308</v>
+        <v>0.08426090677666842</v>
       </c>
       <c r="C72">
-        <v>-0.03430645260300944</v>
+        <v>0.07303367856705863</v>
       </c>
       <c r="D72">
-        <v>0.1204320109193702</v>
+        <v>0.007895457760563881</v>
       </c>
       <c r="E72">
-        <v>-0.01323766348645474</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002183588157142214</v>
+      </c>
+      <c r="F72">
+        <v>-0.04253559571948048</v>
+      </c>
+      <c r="G72">
+        <v>0.06398763601944575</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06041781541994999</v>
+        <v>0.3733759274075389</v>
       </c>
       <c r="C73">
-        <v>-0.1720670615028959</v>
+        <v>0.1243983427961807</v>
       </c>
       <c r="D73">
-        <v>0.194278816849741</v>
+        <v>-0.02320655223713297</v>
       </c>
       <c r="E73">
-        <v>0.01372228919412559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0693868621260602</v>
+      </c>
+      <c r="F73">
+        <v>-0.5719694554276377</v>
+      </c>
+      <c r="G73">
+        <v>-0.2390321811306236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005230466158383427</v>
+        <v>0.1046358854226701</v>
       </c>
       <c r="C74">
-        <v>-0.06405974770284691</v>
+        <v>0.1115487436006176</v>
       </c>
       <c r="D74">
-        <v>0.1694689689728123</v>
+        <v>0.009926874877620022</v>
       </c>
       <c r="E74">
-        <v>0.003137426691820116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01126736886644907</v>
+      </c>
+      <c r="F74">
+        <v>0.06911735898768427</v>
+      </c>
+      <c r="G74">
+        <v>0.06571293570921</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0164723761608433</v>
+        <v>0.2480486684379923</v>
       </c>
       <c r="C75">
-        <v>-0.1567512508506395</v>
+        <v>0.1514475176837666</v>
       </c>
       <c r="D75">
-        <v>0.3010542672690042</v>
+        <v>0.03159378488300853</v>
       </c>
       <c r="E75">
-        <v>0.01308821073539091</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05753675319186514</v>
+      </c>
+      <c r="F75">
+        <v>0.1751730381111191</v>
+      </c>
+      <c r="G75">
+        <v>-0.0536478726849464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004444043288151573</v>
+        <v>0.1212776560151587</v>
       </c>
       <c r="C76">
-        <v>-0.1044083748924864</v>
+        <v>0.1129770600550746</v>
       </c>
       <c r="D76">
-        <v>0.2318065716317545</v>
+        <v>0.02079841093952524</v>
       </c>
       <c r="E76">
-        <v>-0.03635256735410301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04060047258657976</v>
+      </c>
+      <c r="F76">
+        <v>0.1166594816209223</v>
+      </c>
+      <c r="G76">
+        <v>0.04053457390431314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01494249810597877</v>
+        <v>0.06568564798408409</v>
       </c>
       <c r="C77">
-        <v>-0.02002961537343555</v>
+        <v>0.06273719613129201</v>
       </c>
       <c r="D77">
-        <v>0.04433045082453229</v>
+        <v>-0.01265207331646613</v>
       </c>
       <c r="E77">
-        <v>0.01565505148675734</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04739201009974154</v>
+      </c>
+      <c r="F77">
+        <v>-0.009820119127545901</v>
+      </c>
+      <c r="G77">
+        <v>0.05502773481770525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006070457612750224</v>
+        <v>0.0417527190394137</v>
       </c>
       <c r="C78">
-        <v>-0.01475748759370137</v>
+        <v>0.05133874789699248</v>
       </c>
       <c r="D78">
-        <v>0.04189278896137796</v>
+        <v>-0.005737778640968633</v>
       </c>
       <c r="E78">
-        <v>-0.001427785122881534</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02183916319827102</v>
+      </c>
+      <c r="F78">
+        <v>-0.03748334218498359</v>
+      </c>
+      <c r="G78">
+        <v>0.07600770901150423</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01960172181403805</v>
+        <v>0.05426828744595182</v>
       </c>
       <c r="C80">
-        <v>-0.07856789110198886</v>
+        <v>0.07278250698310129</v>
       </c>
       <c r="D80">
-        <v>0.2100762112871044</v>
+        <v>-0.01085645014664619</v>
       </c>
       <c r="E80">
-        <v>-0.7436969675083127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02249606737498609</v>
+      </c>
+      <c r="F80">
+        <v>-0.01066097950488413</v>
+      </c>
+      <c r="G80">
+        <v>0.5729198284137231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01127749592676361</v>
+        <v>0.1396913535920445</v>
       </c>
       <c r="C81">
-        <v>-0.09700814166779906</v>
+        <v>0.09655119352176832</v>
       </c>
       <c r="D81">
-        <v>0.1698395158738362</v>
+        <v>0.01600978761295156</v>
       </c>
       <c r="E81">
-        <v>-0.01617469588243414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03512878135124047</v>
+      </c>
+      <c r="F81">
+        <v>0.133676080872206</v>
+      </c>
+      <c r="G81">
+        <v>0.02186786505437479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.123751550034649</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07022194974165576</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.008588461683546317</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08774129288433986</v>
+      </c>
+      <c r="F82">
+        <v>0.03437567845500245</v>
+      </c>
+      <c r="G82">
+        <v>0.03015421197068094</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.008235878774861632</v>
+        <v>0.03629273337537566</v>
       </c>
       <c r="C83">
-        <v>-0.02125415813852656</v>
+        <v>0.02927534681342773</v>
       </c>
       <c r="D83">
-        <v>0.02458820662213372</v>
+        <v>-0.00600610733715282</v>
       </c>
       <c r="E83">
-        <v>0.004067602354727056</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02770257589183904</v>
+      </c>
+      <c r="F83">
+        <v>-0.03330266899457235</v>
+      </c>
+      <c r="G83">
+        <v>0.05358246723159248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02272315043016385</v>
+        <v>0.2147892686178257</v>
       </c>
       <c r="C85">
-        <v>-0.1269503064913234</v>
+        <v>0.1464949903364111</v>
       </c>
       <c r="D85">
-        <v>0.2758344478514663</v>
+        <v>0.02005200004495632</v>
       </c>
       <c r="E85">
-        <v>-0.0001976779450330299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1004475705720862</v>
+      </c>
+      <c r="F85">
+        <v>0.1406806260599185</v>
+      </c>
+      <c r="G85">
+        <v>-0.1084848921609177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01029242823437896</v>
+        <v>0.01328489930218422</v>
       </c>
       <c r="C86">
-        <v>-0.02736805547184955</v>
+        <v>0.02809072988031998</v>
       </c>
       <c r="D86">
-        <v>0.01333748118408565</v>
+        <v>-0.01274330062710698</v>
       </c>
       <c r="E86">
-        <v>0.03608739496648241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04580759533208267</v>
+      </c>
+      <c r="F86">
+        <v>-0.03477081204968051</v>
+      </c>
+      <c r="G86">
+        <v>0.1596203907822261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.00878925085452943</v>
+        <v>0.02267673958655304</v>
       </c>
       <c r="C87">
-        <v>-0.005127079043807753</v>
+        <v>0.02302749862710144</v>
       </c>
       <c r="D87">
-        <v>0.04397522179706054</v>
+        <v>-0.01257696897511274</v>
       </c>
       <c r="E87">
-        <v>0.00621689126071478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08259218066044849</v>
+      </c>
+      <c r="F87">
+        <v>-0.01956270273315371</v>
+      </c>
+      <c r="G87">
+        <v>0.1015321009729199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02872575047368798</v>
+        <v>0.09082923496183909</v>
       </c>
       <c r="C88">
-        <v>-0.02897865711723911</v>
+        <v>0.06597521004885566</v>
       </c>
       <c r="D88">
-        <v>0.03664652263599841</v>
+        <v>-0.02258428784427051</v>
       </c>
       <c r="E88">
-        <v>-0.003226640780516583</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.007783208132443166</v>
+      </c>
+      <c r="F88">
+        <v>0.01798482873106842</v>
+      </c>
+      <c r="G88">
+        <v>0.06860765030977609</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09772860000673553</v>
+        <v>0.2354272722669974</v>
       </c>
       <c r="C89">
-        <v>-0.3912320297276959</v>
+        <v>-0.3679768200627399</v>
       </c>
       <c r="D89">
-        <v>-0.2117989667279091</v>
+        <v>2.770981468131283e-05</v>
       </c>
       <c r="E89">
-        <v>-0.02024162410415119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01534427677126314</v>
+      </c>
+      <c r="F89">
+        <v>0.02751299766043856</v>
+      </c>
+      <c r="G89">
+        <v>0.05867843800026444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07508179749118543</v>
+        <v>0.2093281409563901</v>
       </c>
       <c r="C90">
-        <v>-0.3064188873992217</v>
+        <v>-0.3193592111342831</v>
       </c>
       <c r="D90">
-        <v>-0.1940210548398062</v>
+        <v>0.00439247685757726</v>
       </c>
       <c r="E90">
-        <v>0.01686996057496</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.003702965685745906</v>
+      </c>
+      <c r="F90">
+        <v>0.04998913230597263</v>
+      </c>
+      <c r="G90">
+        <v>0.0233779197492968</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01256281406389512</v>
+        <v>0.1879765205901832</v>
       </c>
       <c r="C91">
-        <v>-0.1376501581385669</v>
+        <v>0.141526508390807</v>
       </c>
       <c r="D91">
-        <v>0.2288425768025152</v>
+        <v>0.02447196393239726</v>
       </c>
       <c r="E91">
-        <v>-0.01892204833401788</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06985793643019231</v>
+      </c>
+      <c r="F91">
+        <v>0.1501282912407876</v>
+      </c>
+      <c r="G91">
+        <v>0.0121942702236445</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04265028586483849</v>
+        <v>0.2031219091774055</v>
       </c>
       <c r="C92">
-        <v>-0.3178584173913432</v>
+        <v>-0.2554537255136665</v>
       </c>
       <c r="D92">
-        <v>-0.07697752032891576</v>
+        <v>0.03815556019752863</v>
       </c>
       <c r="E92">
-        <v>0.03216475292847672</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03263809938794955</v>
+      </c>
+      <c r="F92">
+        <v>0.05946183848604039</v>
+      </c>
+      <c r="G92">
+        <v>0.1257063713994807</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07293080521815361</v>
+        <v>0.2336989377732428</v>
       </c>
       <c r="C93">
-        <v>-0.3245657209467699</v>
+        <v>-0.3168174222507512</v>
       </c>
       <c r="D93">
-        <v>-0.1760253030571434</v>
+        <v>0.01104668041441935</v>
       </c>
       <c r="E93">
-        <v>0.03984012137277275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.008397756727606183</v>
+      </c>
+      <c r="F93">
+        <v>0.03173273351950337</v>
+      </c>
+      <c r="G93">
+        <v>0.02330601912994718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03768933484484309</v>
+        <v>0.3171790183019792</v>
       </c>
       <c r="C94">
-        <v>-0.1623173624109709</v>
+        <v>0.1801213569687265</v>
       </c>
       <c r="D94">
-        <v>0.254329094270172</v>
+        <v>0.01975890671123778</v>
       </c>
       <c r="E94">
-        <v>0.01966177253997842</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1707764971482314</v>
+      </c>
+      <c r="F94">
+        <v>0.4761021881608798</v>
+      </c>
+      <c r="G94">
+        <v>-0.3165669346931981</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003633034026492832</v>
+        <v>0.09834941572305725</v>
       </c>
       <c r="C95">
-        <v>-0.03313906904975825</v>
+        <v>0.08567695757920456</v>
       </c>
       <c r="D95">
-        <v>0.09252053443095445</v>
+        <v>0.009879121817372527</v>
       </c>
       <c r="E95">
-        <v>0.1253490029596295</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06379476491004536</v>
+      </c>
+      <c r="F95">
+        <v>-0.1997568613742836</v>
+      </c>
+      <c r="G95">
+        <v>-0.07864212728880456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02111274531957601</v>
+        <v>0.1968524203670457</v>
       </c>
       <c r="C98">
-        <v>-0.1580541573904806</v>
+        <v>0.04997471122008818</v>
       </c>
       <c r="D98">
-        <v>0.1400813616290378</v>
+        <v>0.01140182603856395</v>
       </c>
       <c r="E98">
-        <v>0.03902871567738392</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06994694098458143</v>
+      </c>
+      <c r="F98">
+        <v>-0.2396534429625576</v>
+      </c>
+      <c r="G98">
+        <v>-0.01305071193359924</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009231430289089654</v>
+        <v>0.008797434695414988</v>
       </c>
       <c r="C101">
-        <v>-0.01693042971200034</v>
+        <v>0.02135303825819623</v>
       </c>
       <c r="D101">
-        <v>0.008413468325118157</v>
+        <v>-0.008419345961124865</v>
       </c>
       <c r="E101">
-        <v>-0.002974039238856067</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001046686641628665</v>
+      </c>
+      <c r="F101">
+        <v>0.01545430361386623</v>
+      </c>
+      <c r="G101">
+        <v>0.07743268283164635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.02026682943201991</v>
+        <v>0.1172698140485124</v>
       </c>
       <c r="C102">
-        <v>-0.06803214399008199</v>
+        <v>0.08544714674524667</v>
       </c>
       <c r="D102">
-        <v>0.1322718116269344</v>
+        <v>-0.0004498925964959771</v>
       </c>
       <c r="E102">
-        <v>-0.003459279728633002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03325240377880147</v>
+      </c>
+      <c r="F102">
+        <v>0.04188160994963537</v>
+      </c>
+      <c r="G102">
+        <v>0.001694833368265258</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001548660205662462</v>
+        <v>0.002721773816724653</v>
       </c>
       <c r="C103">
-        <v>-0.008542493168302065</v>
+        <v>0.002974786967643708</v>
       </c>
       <c r="D103">
-        <v>0.01946933577867689</v>
+        <v>2.823173398857156e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01218643947838016</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0009809936084016833</v>
+      </c>
+      <c r="F103">
+        <v>0.007309929231141852</v>
+      </c>
+      <c r="G103">
+        <v>0.01449897223341934</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9680604098671869</v>
+        <v>0.02111939246223989</v>
       </c>
       <c r="C104">
-        <v>0.2100366280408561</v>
+        <v>-0.02902438183351574</v>
       </c>
       <c r="D104">
-        <v>-0.01753747376316517</v>
+        <v>-0.9869020465582813</v>
       </c>
       <c r="E104">
-        <v>-0.03830296669478755</v>
+        <v>0.05852499892142799</v>
+      </c>
+      <c r="F104">
+        <v>0.03997483135819996</v>
+      </c>
+      <c r="G104">
+        <v>-0.02673653387524299</v>
       </c>
     </row>
   </sheetData>
